--- a/output/맛잘알 연예인.xlsx
+++ b/output/맛잘알 연예인.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sbr\restaurant-for-media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sbr\restaurant-for-media\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0AD2AA-13D8-40F6-ACD7-3154EE460CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91A4F34-5231-4D3A-A770-2109B41C19AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20070" yWindow="1350" windowWidth="17460" windowHeight="14250" xr2:uid="{BDD7A174-5ED6-44FD-BB1E-0BC530C71537}"/>
+    <workbookView xWindow="1995" yWindow="1350" windowWidth="17460" windowHeight="14250" xr2:uid="{BDD7A174-5ED6-44FD-BB1E-0BC530C71537}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>백종원</t>
   </si>
@@ -48,24 +48,415 @@
     <t>최자</t>
   </si>
   <si>
-    <t>안소희</t>
-  </si>
-  <si>
     <t>비(정지훈)</t>
   </si>
   <si>
-    <t>윤두준</t>
-  </si>
-  <si>
     <t>이영자</t>
   </si>
   <si>
+    <t>도두반점</t>
+  </si>
+  <si>
+    <t>삼대천왕 - 지린성</t>
+  </si>
+  <si>
+    <t>박용채의 대박터진 돈까스</t>
+  </si>
+  <si>
+    <t>미미파스타</t>
+  </si>
+  <si>
+    <t>삼대천왕 - 고단백식당</t>
+  </si>
+  <si>
+    <t>스트릿푸드파이터 - 짜런쌩 씰롬</t>
+  </si>
+  <si>
+    <t>거제 중앙식육식당</t>
+  </si>
+  <si>
+    <t>삼대천왕 - 순심원</t>
+  </si>
+  <si>
+    <t>엄마네 돼지찌개</t>
+  </si>
+  <si>
+    <t>간장 닭갈비 공주짐</t>
+  </si>
+  <si>
+    <t>경방루</t>
+  </si>
+  <si>
+    <t>룽르엉</t>
+  </si>
+  <si>
+    <t>결성칼국수</t>
+  </si>
+  <si>
+    <t>삼대천왕 - 첨일만두</t>
+  </si>
+  <si>
+    <t>맛나게장</t>
+  </si>
+  <si>
+    <t>낙원곱창</t>
+  </si>
+  <si>
+    <t>순철월등면</t>
+  </si>
+  <si>
+    <t>원조 두꺼비 불오징어</t>
+  </si>
+  <si>
+    <t>하니칼국수</t>
+  </si>
+  <si>
+    <t>나진국밥</t>
+  </si>
+  <si>
+    <t>서초동 평양면옥</t>
+  </si>
+  <si>
+    <t>을지칼국수</t>
+  </si>
+  <si>
+    <t>시골집(을지로)</t>
+  </si>
+  <si>
+    <t>춘향미엔</t>
+  </si>
+  <si>
+    <t>서대문 양꼬치</t>
+  </si>
+  <si>
+    <t>강남혜장국</t>
+  </si>
+  <si>
+    <t>청실홍실</t>
+  </si>
+  <si>
+    <t>구반포</t>
+  </si>
+  <si>
+    <t>성천막국수</t>
+  </si>
+  <si>
+    <t>금산제면소</t>
+  </si>
+  <si>
+    <t>내당한우</t>
+  </si>
+  <si>
+    <t>장가라라멘</t>
+  </si>
+  <si>
+    <t>전통아바이순대(산림동)</t>
+  </si>
+  <si>
+    <t>청담동 뜨락</t>
+  </si>
+  <si>
+    <t>청국장서갈비</t>
+  </si>
+  <si>
+    <t>태화원</t>
+  </si>
+  <si>
+    <t>갯마을</t>
+  </si>
+  <si>
+    <t>봉피양샤브</t>
+  </si>
+  <si>
+    <t>엄마손떡볶이</t>
+  </si>
+  <si>
+    <t>토말 본점</t>
+  </si>
+  <si>
+    <t>70년 소머리 국밥</t>
+  </si>
+  <si>
+    <t>청주 육거리 시장</t>
+  </si>
+  <si>
+    <t>몽마 베이커리</t>
+  </si>
+  <si>
+    <t>봉화전</t>
+  </si>
+  <si>
+    <t>까치네</t>
+  </si>
+  <si>
+    <t>돌곰네</t>
+  </si>
+  <si>
+    <t>정가네 손칼국수</t>
+  </si>
+  <si>
+    <t>대성집</t>
+  </si>
+  <si>
+    <t>현고대 닭발</t>
+  </si>
+  <si>
+    <t>포천 곱창전골</t>
+  </si>
+  <si>
+    <t>수요미식회 - 부첼리하우스</t>
+  </si>
+  <si>
+    <t>까치둥지</t>
+  </si>
+  <si>
+    <t>뽈살집</t>
+  </si>
+  <si>
+    <t>오죽이네</t>
+  </si>
+  <si>
+    <t>송파 사랑방</t>
+  </si>
+  <si>
+    <t>황평집</t>
+  </si>
+  <si>
+    <t>아노브</t>
+  </si>
+  <si>
+    <t>신비갈비살</t>
+  </si>
+  <si>
+    <t>일통이반</t>
+  </si>
+  <si>
+    <t>산수갑산</t>
+  </si>
+  <si>
+    <t>고미테</t>
+  </si>
+  <si>
+    <t>현정이네철판두루치기</t>
+  </si>
+  <si>
+    <t>상원냉면</t>
+  </si>
+  <si>
+    <t>광명식당</t>
+  </si>
+  <si>
+    <t>남영돈</t>
+  </si>
+  <si>
+    <t>월래순교자관만두</t>
+  </si>
+  <si>
+    <t>왕십리 장어구이</t>
+  </si>
+  <si>
+    <t>호수집</t>
+  </si>
+  <si>
+    <t>진옥화할매원조닭한마리</t>
+  </si>
+  <si>
+    <t>의령식당</t>
+  </si>
+  <si>
+    <t>고도식</t>
+  </si>
+  <si>
+    <t>당골식당</t>
+  </si>
+  <si>
+    <t>신논현 혜장국</t>
+  </si>
+  <si>
+    <t>아각아각</t>
+  </si>
+  <si>
+    <t>대한옥</t>
+  </si>
+  <si>
+    <t>고가길구공탄</t>
+  </si>
+  <si>
+    <t>우정양곱창</t>
+  </si>
+  <si>
+    <t>이한진숙성회</t>
+  </si>
+  <si>
+    <t>호별관</t>
+  </si>
+  <si>
+    <t>부원냉면</t>
+  </si>
+  <si>
+    <t>안춘선 배추갈비탕</t>
+  </si>
+  <si>
+    <t>노스트레스버거</t>
+  </si>
+  <si>
+    <t>미미미 가든</t>
+  </si>
+  <si>
+    <t>돝고기</t>
+  </si>
+  <si>
+    <t>소인수서울</t>
+  </si>
+  <si>
+    <t>피셔맨즈</t>
+  </si>
+  <si>
+    <t>우미남</t>
+  </si>
+  <si>
+    <t>천지식당</t>
+  </si>
+  <si>
+    <t>막내횟집</t>
+  </si>
+  <si>
+    <t>사선대가든</t>
+  </si>
+  <si>
+    <t>산골농원(가평)</t>
+  </si>
+  <si>
+    <t>엘더버거</t>
+  </si>
+  <si>
+    <t>홍미닭발</t>
+  </si>
+  <si>
+    <t>도동집</t>
+  </si>
+  <si>
+    <t>아 이맛이야 장작철판구이</t>
+  </si>
+  <si>
+    <t>빵곱창</t>
+  </si>
+  <si>
+    <t>육백마지기</t>
+  </si>
+  <si>
+    <t>대게 좋은 날</t>
+  </si>
+  <si>
+    <t>착한집</t>
+  </si>
+  <si>
+    <t>진대감</t>
+  </si>
+  <si>
+    <t>일심본가</t>
+  </si>
+  <si>
+    <t>별주부네물곰탕</t>
+  </si>
+  <si>
+    <t>코끼리만두</t>
+  </si>
+  <si>
+    <t>송쉐프</t>
+  </si>
+  <si>
+    <t>오토김밥</t>
+  </si>
+  <si>
+    <t>한방통닭(소화제)</t>
+  </si>
+  <si>
+    <t>운정중국집</t>
+  </si>
+  <si>
+    <t>돈육지존</t>
+  </si>
+  <si>
+    <t>명동교자</t>
+  </si>
+  <si>
+    <t>청춘면가</t>
+  </si>
+  <si>
+    <t>돈까스잔치</t>
+  </si>
+  <si>
+    <t>카페산</t>
+  </si>
+  <si>
+    <t>영천영화</t>
+  </si>
+  <si>
+    <t>한입소반</t>
+  </si>
+  <si>
+    <t>계담다</t>
+  </si>
+  <si>
+    <t>대복식당</t>
+  </si>
+  <si>
+    <t>두물머리연핫도그</t>
+  </si>
+  <si>
+    <t>고봉삼계탕</t>
+  </si>
+  <si>
+    <t>문세윤</t>
+  </si>
+  <si>
+    <t>평방옥</t>
+  </si>
+  <si>
+    <t>큰맘할매순댓국</t>
+  </si>
+  <si>
+    <t>서운 칼국수</t>
+  </si>
+  <si>
+    <t>김북순큰잠비집</t>
+  </si>
+  <si>
     <t>김준현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문세윤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낭만짜장</t>
+  </si>
+  <si>
+    <t xml:space="preserve">서유기짬뽕 </t>
+  </si>
+  <si>
+    <t>주은감자탕</t>
+  </si>
+  <si>
+    <t>원조수구레</t>
+  </si>
+  <si>
+    <t>피자헤븐</t>
+  </si>
+  <si>
+    <t>태조석갈비</t>
+  </si>
+  <si>
+    <t>하롱베이의 하루</t>
+  </si>
+  <si>
+    <t>배떼기곱창</t>
+  </si>
+  <si>
+    <t>옛진미칼국수</t>
+  </si>
+  <si>
+    <t>오미냉면</t>
+  </si>
+  <si>
+    <t>주양돈까스나라</t>
   </si>
 </sst>
 </file>
@@ -429,62 +820,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F797A88C-8617-436F-860A-EDE4F2BF1D93}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
